--- a/src/views/data-import/import-data-template.xlsx
+++ b/src/views/data-import/import-data-template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Company" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Companies" sheetId="1" r:id="rId3"/>
     <sheet state="visible" name="Schools" sheetId="2" r:id="rId4"/>
     <sheet state="visible" name="Users" sheetId="3" r:id="rId5"/>
     <sheet state="visible" name="School Classes" sheetId="4" r:id="rId6"/>
@@ -15,9 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>NAME - REQUIRED</t>
+  </si>
+  <si>
+    <t>COMPANY - REQUIRED</t>
+  </si>
+  <si>
+    <t>REGION - REQUIRED</t>
   </si>
   <si>
     <t>STATE - REQUIRED</t>
@@ -47,23 +53,10 @@
     <t>ROLE - REQUIRED</t>
   </si>
   <si>
-    <t>COMPANY - REQUIRED</t>
-  </si>
-  <si>
     <t>SCHOOL</t>
   </si>
   <si>
-    <t>nome do estado</t>
-  </si>
-  <si>
     <t>texto no formato de email</t>
-  </si>
-  <si>
-    <t>Somente numeros. 
-Para o Brasil, usar um CNPJ valido</t>
-  </si>
-  <si>
-    <t>regiões do cadastro da flexge</t>
   </si>
   <si>
     <t>COMPANY_MANAGER, SCHOOL_MANAGER, TEACHER</t>
@@ -72,16 +65,56 @@
     <t>ID or Name</t>
   </si>
   <si>
-    <t>REGION - REQUIRED</t>
+    <t>Required for SCHOOL_MANAGER and TEACHER</t>
   </si>
   <si>
-    <t>Required for SCHOOL_MANAGER and TEACHER</t>
+    <t>nome do estado</t>
+  </si>
+  <si>
+    <t>Somente numeros. 
+Para o Brasil, usar um CNPJ valido</t>
   </si>
   <si>
     <t>FOUNDATION YEAR</t>
   </si>
   <si>
     <t>INEP</t>
+  </si>
+  <si>
+    <t>regiões do cadastro da flexge</t>
+  </si>
+  <si>
+    <t>GENDER</t>
+  </si>
+  <si>
+    <t>BIRTH DATE</t>
+  </si>
+  <si>
+    <t>CONTACT PHONE</t>
+  </si>
+  <si>
+    <t>ACADEMIC PLAN - REQUIRED</t>
+  </si>
+  <si>
+    <t>COURSE</t>
+  </si>
+  <si>
+    <t>SCHOOL CLASS - REQUIRED</t>
+  </si>
+  <si>
+    <t>CUSTOM ID</t>
+  </si>
+  <si>
+    <t>M or F</t>
+  </si>
+  <si>
+    <t>Data - YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>FUND_II or KIDS</t>
+  </si>
+  <si>
+    <t>PRE A1, A1, A1+, A2, A2+, B1, B1+, B2, B2+, C1, C2</t>
   </si>
   <si>
     <t>SCHOOL - REQUIRED</t>
@@ -93,55 +126,19 @@
     <t>START</t>
   </si>
   <si>
-    <t>GENDER</t>
-  </si>
-  <si>
     <t>END</t>
-  </si>
-  <si>
-    <t>BIRTH DATE</t>
   </si>
   <si>
     <t>WEEKLY REQUIRED HOURS - REQUIRED</t>
   </si>
   <si>
-    <t>ACADEMIC PLAN - REQUIRED</t>
-  </si>
-  <si>
     <t>IS PLACEMENT TEST CLASS</t>
-  </si>
-  <si>
-    <t>CONTACT PHONE</t>
-  </si>
-  <si>
-    <t>COURSE</t>
-  </si>
-  <si>
-    <t>SCHOOL CLASS - REQUIRED</t>
-  </si>
-  <si>
-    <t>CUSTOM ID</t>
   </si>
   <si>
     <t>email do usuário com role teacher</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Data - YYYY-MM-DD</t>
-  </si>
-  <si>
-    <t>M or F</t>
-  </si>
-  <si>
-    <t>FUND_II or KIDS</t>
-  </si>
-  <si>
     <t>1, 1.5, 2, 2.5, 3, 3.5 or 4</t>
-  </si>
-  <si>
-    <t>PRE A1, A1, A1+, A2, A2+, B1, B1+, B2, B2+, C1, C2</t>
   </si>
   <si>
     <t>S or N</t>
@@ -260,36 +257,36 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3">
         <v>9.999999999E9</v>
@@ -1323,48 +1320,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2" s="3">
         <v>9.999999999E9</v>
@@ -1373,7 +1370,7 @@
         <v>9999.0</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1"/>
@@ -2402,44 +2399,44 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="F3" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1"/>
@@ -3469,51 +3466,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1"/>
@@ -4545,63 +4542,63 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1"/>
